--- a/Names and Roles.xlsx
+++ b/Names and Roles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvand\Documents\GitHub\Parallel-Heroes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E40250-7F22-463F-A62B-391CBA9B89B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5D17BA-CB51-4EAA-84C8-C884394120EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t>Clint</t>
   </si>
@@ -281,6 +281,36 @@
   </si>
   <si>
     <t>Dancer</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Aero</t>
+  </si>
+  <si>
+    <t>Wind Sage</t>
+  </si>
+  <si>
+    <t>Red Mage</t>
+  </si>
+  <si>
+    <t>Flaire</t>
   </si>
 </sst>
 </file>
@@ -358,8 +388,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,7 +405,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -671,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC1268-822F-42DC-AF82-8F6A09141282}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1119,6 +1149,61 @@
       </c>
       <c r="C39" s="2" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1242,7 @@
       </c>
       <c r="C2" s="2">
         <f>COUNTIF(Characters!B:B, "M")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -1166,7 +1251,7 @@
       </c>
       <c r="C3" s="2">
         <f>COUNTIF(Characters!B:B, "F")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -1175,14 +1260,14 @@
       </c>
       <c r="C4" s="2">
         <f>COUNTIF(Characters!B:B, "NB")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="3">
         <f>SUM(C2:C4)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Names and Roles.xlsx
+++ b/Names and Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvand\Documents\GitHub\Parallel-Heroes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5D17BA-CB51-4EAA-84C8-C884394120EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC0AE0-579B-47AE-9452-21B920A6CF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="120">
   <si>
     <t>Clint</t>
   </si>
@@ -311,6 +311,87 @@
   </si>
   <si>
     <t>Flaire</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Fists</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Magic Dust</t>
+  </si>
+  <si>
+    <t>Kunai</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Dragons</t>
+  </si>
+  <si>
+    <t>Beasts</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Frying Pan</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Cuteness</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Lectures</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Teeth</t>
+  </si>
+  <si>
+    <t>Mop</t>
+  </si>
+  <si>
+    <t>Paintbrush</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Sick Moves</t>
+  </si>
+  <si>
+    <t>Puppets</t>
   </si>
 </sst>
 </file>
@@ -341,12 +422,96 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -380,12 +545,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -704,7 +883,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -712,10 +891,11 @@
     <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,9 +905,15 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -736,8 +922,11 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,8 +936,11 @@
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -758,9 +950,12 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -769,9 +964,12 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -780,8 +978,11 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -791,9 +992,12 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -802,8 +1006,11 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -813,8 +1020,11 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -824,9 +1034,12 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -835,8 +1048,11 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -846,9 +1062,12 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -857,9 +1076,12 @@
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -868,9 +1090,12 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -879,9 +1104,12 @@
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -890,9 +1118,12 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -901,9 +1132,12 @@
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -912,9 +1146,12 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -923,9 +1160,12 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -934,9 +1174,12 @@
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -945,9 +1188,12 @@
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -956,9 +1202,12 @@
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -967,9 +1216,12 @@
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -978,9 +1230,12 @@
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -988,6 +1243,9 @@
       </c>
       <c r="C25" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1000,9 +1258,12 @@
       <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1010,6 +1271,9 @@
       </c>
       <c r="C27" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1022,9 +1286,12 @@
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1033,9 +1300,12 @@
       <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1043,6 +1313,9 @@
       </c>
       <c r="C30" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1062,6 +1335,9 @@
       <c r="C31" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1073,8 +1349,11 @@
       <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -1084,9 +1363,12 @@
       <c r="C33" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1095,9 +1377,12 @@
       <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1106,8 +1391,11 @@
       <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1117,9 +1405,12 @@
       <c r="C36" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1128,8 +1419,11 @@
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -1139,8 +1433,11 @@
       <c r="C38" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -1150,8 +1447,11 @@
       <c r="C39" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -1161,9 +1461,12 @@
       <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1172,9 +1475,12 @@
       <c r="C41" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1183,9 +1489,12 @@
       <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1194,9 +1503,12 @@
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1204,6 +1516,9 @@
       </c>
       <c r="C44" s="2" t="s">
         <v>91</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Names and Roles.xlsx
+++ b/Names and Roles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvand\Documents\GitHub\Parallel-Heroes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC0AE0-579B-47AE-9452-21B920A6CF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2666370-50E4-4318-922A-BD4A3DA2648B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
   <si>
     <t>Clint</t>
   </si>
@@ -422,96 +422,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -545,30 +461,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,7 +487,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -882,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC1268-822F-42DC-AF82-8F6A09141282}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -913,7 +816,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -927,7 +830,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -941,7 +844,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -955,7 +858,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -969,7 +872,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -983,7 +886,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -997,7 +900,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1011,7 +914,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1025,7 +928,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1039,7 +942,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1053,7 +956,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1067,7 +970,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1081,7 +984,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1095,7 +998,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1109,7 +1012,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1123,7 +1026,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1137,7 +1040,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1151,7 +1054,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1165,7 +1068,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1179,7 +1082,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1193,7 +1096,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1207,7 +1110,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1249,7 +1152,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1263,7 +1166,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1277,7 +1180,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1291,7 +1194,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1305,7 +1208,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1326,7 +1229,7 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1340,7 +1243,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1354,7 +1257,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1368,7 +1271,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1382,7 +1285,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1396,7 +1299,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1410,7 +1313,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1424,7 +1327,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1438,7 +1341,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1452,7 +1355,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1466,7 +1369,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1480,7 +1383,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1494,7 +1397,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1508,7 +1411,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
